--- a/data/trans_dic/P22$mutuaSPriv-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.003819271973087156</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.003500129535823981</v>
+        <v>0.00350012953582398</v>
       </c>
     </row>
     <row r="5">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009143331063290986</v>
+        <v>0.007931956890389944</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001063363744350076</v>
+        <v>0.001059916472808874</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006728849443118803</v>
+        <v>0.006861092368847665</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003065699505941692</v>
+        <v>0.003096692987996602</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.001286468662556468</v>
+        <v>0.001289328634231309</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002164089400204192</v>
+        <v>0.0021549644948878</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009178972397446101</v>
+        <v>0.008822289845072617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003157289029298796</v>
+        <v>0.003070244384962932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001375237309837027</v>
+        <v>0.001393081418623335</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001585448773203906</v>
+        <v>0.001521410875281718</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02560743304268822</v>
+        <v>0.02382307638722822</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01321752351656641</v>
+        <v>0.01386340232697555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.009808667178401178</v>
+        <v>0.009880896378822144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.003805162178274266</v>
+        <v>0.004738095070378764</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01859377068395483</v>
+        <v>0.01912249078248027</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01265682597552307</v>
+        <v>0.01366889720249932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01223684349670888</v>
+        <v>0.01059674769265944</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01149780945770592</v>
+        <v>0.01146901264655432</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01884845168757353</v>
+        <v>0.01862559227807529</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0108505766374008</v>
+        <v>0.01046138548681176</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008110934920696151</v>
+        <v>0.00806455912146454</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.007094295064787983</v>
+        <v>0.007087862107259605</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01318159506244966</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02024759600218938</v>
+        <v>0.02024759600218939</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01375250160994376</v>
+        <v>0.01409022357802642</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01796734294377501</v>
+        <v>0.01720497523088256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01066617916503993</v>
+        <v>0.01034794773617929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01795575635067995</v>
+        <v>0.01773402805448092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01294493112387072</v>
+        <v>0.01221572548506017</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01035396605595345</v>
+        <v>0.01031663545538177</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006665825592074036</v>
+        <v>0.006530896618191524</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01152982497186214</v>
+        <v>0.01094278007910201</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01506712146123819</v>
+        <v>0.01495437574188527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01646605883531412</v>
+        <v>0.0159932716507565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009753991017353738</v>
+        <v>0.009903137325493108</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01609532790619596</v>
+        <v>0.01557980251986649</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02882382718076719</v>
+        <v>0.02975300539800356</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03292166612168449</v>
+        <v>0.03343770560357159</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02230849484144972</v>
+        <v>0.02190389852430965</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03533599442309623</v>
+        <v>0.03435882288189678</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02623287816547921</v>
+        <v>0.02582482335427248</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02427333367327697</v>
+        <v>0.02334621735188127</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01733870680488148</v>
+        <v>0.01681047256479341</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02091120558777802</v>
+        <v>0.0206845051537161</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.025186808873283</v>
+        <v>0.0256648451608218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02604942760966178</v>
+        <v>0.026441049518416</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01761651584679657</v>
+        <v>0.01719380280004964</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02561397358613275</v>
+        <v>0.02552370952397212</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.0627392979318951</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07112420577496302</v>
+        <v>0.07112420577496301</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02464089429412439</v>
+        <v>0.0250643107344901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0300597842673645</v>
+        <v>0.02811501603576685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04733182171274262</v>
+        <v>0.04539609907430191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04673087645025673</v>
+        <v>0.04755598109389803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03352578893004628</v>
+        <v>0.0356918232345163</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04193949019746938</v>
+        <v>0.04251485369231284</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04077636657771054</v>
+        <v>0.04147368697795476</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05905902596997386</v>
+        <v>0.06082744117621456</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03277866450935003</v>
+        <v>0.03254126248865335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03924111715346327</v>
+        <v>0.04049684020224045</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04773801585103036</v>
+        <v>0.04941149636578869</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05808129091328143</v>
+        <v>0.0600485359078411</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05844408862005994</v>
+        <v>0.05875030877902019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07603147662909221</v>
+        <v>0.07514586409816913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09330348206802612</v>
+        <v>0.08981056977347164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08853770158291537</v>
+        <v>0.08748994141098138</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07574385109167976</v>
+        <v>0.07686485068373157</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0928693119521697</v>
+        <v>0.09221208229108686</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08584392893859392</v>
+        <v>0.08171709367423792</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09633814020187838</v>
+        <v>0.09669254579144877</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05893698660152303</v>
+        <v>0.0580874663889346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07472813710097116</v>
+        <v>0.07458963676936405</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07821039126414853</v>
+        <v>0.07912515803165551</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0844251495048236</v>
+        <v>0.0867267804101529</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02082670064181627</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02914915092421891</v>
+        <v>0.02914915092421892</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02071495137315627</v>
@@ -1093,7 +1093,7 @@
         <v>0.01662919508419162</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02529461252149539</v>
+        <v>0.0252946125214954</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02111270282602259</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01740744785465733</v>
+        <v>0.01726137719795899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01570537804504471</v>
+        <v>0.01602255994156471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02314475571731432</v>
+        <v>0.02284119140613534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01453415026992309</v>
+        <v>0.0138680844885837</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01234677445790818</v>
+        <v>0.01270835817390337</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02132569713121909</v>
+        <v>0.02102396439632605</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01700087441446888</v>
+        <v>0.01703637494516584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01562735038774104</v>
+        <v>0.01543704529086549</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02377096420421922</v>
+        <v>0.02365534612658112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0290691528479585</v>
+        <v>0.02810113077950657</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02643206818391332</v>
+        <v>0.02610304419252752</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03744805098405928</v>
+        <v>0.03696438378062814</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02458350518870422</v>
+        <v>0.02363819900333133</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02174261147650881</v>
+        <v>0.02148282416181987</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03068402714627881</v>
+        <v>0.03042151578632945</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0244188375725943</v>
+        <v>0.02438766765880546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02230100448603776</v>
+        <v>0.02245449026908882</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03174040878485233</v>
+        <v>0.031902215811744</v>
       </c>
     </row>
     <row r="16">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9407</v>
+        <v>8161</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1475,28 +1475,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8843</v>
+        <v>9017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4101</v>
+        <v>4143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21508</v>
+        <v>20672</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7301</v>
+        <v>7100</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2398</v>
+        <v>2429</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2219</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26347</v>
+        <v>24511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12882</v>
+        <v>13512</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7388</v>
+        <v>7442</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2201</v>
+        <v>2741</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24437</v>
+        <v>25132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16932</v>
+        <v>18286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12123</v>
+        <v>10498</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9443</v>
+        <v>9420</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44165</v>
+        <v>43642</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>25091</v>
+        <v>24191</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14145</v>
+        <v>14064</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9931</v>
+        <v>9922</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23240</v>
+        <v>23810</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35269</v>
+        <v>33773</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22117</v>
+        <v>21458</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40051</v>
+        <v>39557</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20537</v>
+        <v>19380</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18200</v>
+        <v>18135</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13241</v>
+        <v>12973</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25023</v>
+        <v>23749</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49365</v>
+        <v>48996</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>61267</v>
+        <v>59507</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>39602</v>
+        <v>40207</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>70834</v>
+        <v>68565</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48708</v>
+        <v>50278</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64624</v>
+        <v>65637</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46259</v>
+        <v>45420</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>78819</v>
+        <v>76640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41618</v>
+        <v>40971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42668</v>
+        <v>41038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34442</v>
+        <v>33393</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45384</v>
+        <v>44892</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82521</v>
+        <v>84087</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>96924</v>
+        <v>98381</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>71524</v>
+        <v>69808</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112724</v>
+        <v>112327</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13587</v>
+        <v>13821</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14464</v>
+        <v>13528</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25840</v>
+        <v>24783</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33253</v>
+        <v>33840</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15972</v>
+        <v>17004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19235</v>
+        <v>19499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22392</v>
+        <v>22775</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43401</v>
+        <v>44701</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33691</v>
+        <v>33447</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36879</v>
+        <v>38059</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>52276</v>
+        <v>54109</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>84012</v>
+        <v>86858</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32227</v>
+        <v>32395</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36585</v>
+        <v>36159</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50937</v>
+        <v>49030</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63002</v>
+        <v>62257</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36085</v>
+        <v>36619</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>42593</v>
+        <v>42291</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47140</v>
+        <v>44874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70797</v>
+        <v>71057</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60577</v>
+        <v>59703</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>70230</v>
+        <v>70100</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>85645</v>
+        <v>86647</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>122118</v>
+        <v>125447</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>59513</v>
+        <v>59013</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52970</v>
+        <v>54039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>81485</v>
+        <v>80417</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51658</v>
+        <v>49290</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43538</v>
+        <v>44813</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>79471</v>
+        <v>78346</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>118548</v>
+        <v>118795</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>107813</v>
+        <v>106500</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>172273</v>
+        <v>171435</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99382</v>
+        <v>96072</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89148</v>
+        <v>88038</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>131843</v>
+        <v>130140</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87375</v>
+        <v>84016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>76671</v>
+        <v>75755</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>114345</v>
+        <v>113366</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>170273</v>
+        <v>170056</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>153855</v>
+        <v>154914</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>230029</v>
+        <v>231202</v>
       </c>
     </row>
     <row r="20">
